--- a/final/final.xlsx
+++ b/final/final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aucampus-my.sharepoint.com/personal/marie_doh_ashesi_edu_gh/Documents/Desktop/Documents/GitHub/cap/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_221993A1D340D30F835B3811595ED87656CDDD6D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A053073-089B-46CE-88C5-AA99CDC3C314}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_651DB2A0D330DE0CB7392211595ED87656CD1DE9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF64B9CC-454B-4813-A47A-F18810B43AAE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -316,148 +316,148 @@
     <t>24 April, 2025 Eight AM</t>
   </si>
   <si>
+    <t>Computer Organization and Architecture</t>
+  </si>
+  <si>
+    <t>BSc-CE 5ADB, BSc-CE 2ADB, BSc-CE 8ADB, BSc-CE 1ADB, BSc-CE 9ADB, BSc-CE 3ADB, BSc-CE 6ADB, BSc-CE 0ADB, BSc-CE 7ADB</t>
+  </si>
+  <si>
+    <t>Concepts of Programming Languages</t>
+  </si>
+  <si>
+    <t>BSc-CS 2ADB, BSc-CS 7ADB, BSc-CS 4ADB, BSc-CS 0ADB, BSc-CS 8ADB, BSc-MIS 8ADB, BSc-CS 5ADB, BSc-CS 9ADB, BSc-MIS 7ADB, BSc-CS 1ADB</t>
+  </si>
+  <si>
+    <t>Mechanics of Machines &amp; Engineering Vibration</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>BSc-ME 2ADB, BSc-ME 6ADB, BSc-ME 9ADB, BSc-ME 7ADB, BSc-ME 0ADB, BSc-ME 8ADB, BSc-ME 4ADB, BSc-ME 5ADB, Undeclared 1ADB</t>
+  </si>
+  <si>
+    <t>Power Systems Analysis</t>
+  </si>
+  <si>
+    <t>BSc-EEE 8ADB, BSc-EEE 5ADB, BSc-EEE 4ADB, BSc-EEE 2ADB, BSc-EEE 1ADB, BSc-EEE 6ADB, BSc-EEE 3ADB, BSc-EEE 0ADB</t>
+  </si>
+  <si>
+    <t>AC Electrical Machines</t>
+  </si>
+  <si>
+    <t>C, F</t>
+  </si>
+  <si>
+    <t>BSc-EEE 3ADB, BSc-ME 7ADB, BSc-ME 3ADB, BSc-EEE 5ADB, BSc-EEE 2ADB, BSc-ME 6ADB, BSc-EEE 0ADB, BSc-EEE 1ADB, BSc-EEE 9ADB, BSc-ME 5ADB, BSc-ME 4ADB, BSc-MT 0ADB, BSc-ME 1ADB, BSc-EEE 7ADB, BSc-EEE 6ADB, BSc-ME 8ADB, BSc-ME 0ADB, BSc-MT 6ADB, BSc-ME 9ADB</t>
+  </si>
+  <si>
+    <t>24 April, 2025 One PM</t>
+  </si>
+  <si>
+    <t>Discrete Structures and Theory</t>
+  </si>
+  <si>
+    <t>D, E, F, G, H</t>
+  </si>
+  <si>
+    <t>BSc-CS 5ADB, BSc-CS 0ADB, BSc-CS 4ADB, BSc-CS 9ADB, BSc-CS 6ADB, BSc-CS 7ADB, BSc-CS 1ADB, BSc-CS 2ADB, BSc-CS 3ADB, BSc-CS 8ADB, BSc-MIS 5ADB, BSc-CE 1ADB, BSc-MIS 1ADB, BSc-CE 9ADB, BSc-MIS 0ADB, BSc-MIS 7ADB, BSc-MIS 2ADB, BSc-CE 0ADB, BSc-CE 4ADB, BSc-CE 8ADB, BSc-MIS 6ADB, BSc-CE 2ADB, BSc-MIS 3ADB, BSc-EEE 8ADB, BSc-ME 6ADB, BSc-MT 2ADB, BSc-CE 6ADB, BSc-CE 7ADB, BSc-CE 5ADB, BSc-MIS 4ADB</t>
+  </si>
+  <si>
+    <t>African Cultural Institutions</t>
+  </si>
+  <si>
+    <t>A, I</t>
+  </si>
+  <si>
+    <t>BSc-CS 5ADB, BSc-BA 1ADB, BSc-BA 0ADB, BSc-BA 2ADB, BSc-MIS 3ADB, BSc-BA 9ADB, BSc-MIS 7ADB, BSc-BA 6ADB, BSc-BA 5ADB, BSc-MIS 5ADB, BSc-CS 2ADB, Undeclared 9ADB, BSc-CS 6ADB, BSc-MIS 2ADB, BSc-BA 8ADB, Undeclared 0ADB, BSc-MIS 4ADB, BSc-MIS 0ADB, BSc-CS 8ADB, BSc-CS 1ADB, BSc-ME 7ADB, BSc-ME 3ADB, BSc-MIS 1ADB, BSc-BA 7ADB, BSc-CS 3ADB, BSc-BA 3ADB, Undeclared 3ADB</t>
+  </si>
+  <si>
     <t>Thermodynamics</t>
   </si>
   <si>
-    <t>A, D</t>
-  </si>
-  <si>
     <t>BSc-EEE 0ADB, BSc-EEE 8ADB, BSc-EEE 7ADB, BSc-EEE 1ADB, BSc-EEE 5ADB, BSc-ME 2ADB, BSc-EEE 6ADB, BSc-EEE 4ADB, BSc-ME 6ADB, BSc-ME 9ADB, BSc-ME 5ADB, BSc-EEE 2ADB, BSc-ME 8ADB, BSc-EEE 3ADB, BSc-EEE 9ADB, BSc-ME 0ADB, BSc-ME 7ADB, BSc-ME 4ADB, BSc-MT 8ADB</t>
   </si>
   <si>
-    <t>Mechanics of Machines &amp; Engineering Vibration</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>BSc-ME 2ADB, BSc-ME 6ADB, BSc-ME 9ADB, BSc-ME 7ADB, BSc-ME 0ADB, BSc-ME 8ADB, BSc-ME 4ADB, BSc-ME 5ADB, Undeclared 1ADB</t>
-  </si>
-  <si>
-    <t>AC Electrical Machines</t>
-  </si>
-  <si>
-    <t>B, F</t>
-  </si>
-  <si>
-    <t>BSc-EEE 3ADB, BSc-ME 7ADB, BSc-ME 3ADB, BSc-EEE 5ADB, BSc-EEE 2ADB, BSc-ME 6ADB, BSc-EEE 0ADB, BSc-EEE 1ADB, BSc-EEE 9ADB, BSc-ME 5ADB, BSc-ME 4ADB, BSc-MT 0ADB, BSc-ME 1ADB, BSc-EEE 7ADB, BSc-EEE 6ADB, BSc-ME 8ADB, BSc-ME 0ADB, BSc-MT 6ADB, BSc-ME 9ADB</t>
-  </si>
-  <si>
-    <t>24 April, 2025 One PM</t>
-  </si>
-  <si>
-    <t>Discrete Structures and Theory</t>
-  </si>
-  <si>
-    <t>D, E, F, G, H</t>
-  </si>
-  <si>
-    <t>BSc-CS 5ADB, BSc-CS 0ADB, BSc-CS 4ADB, BSc-CS 9ADB, BSc-CS 6ADB, BSc-CS 7ADB, BSc-CS 1ADB, BSc-CS 2ADB, BSc-CS 3ADB, BSc-CS 8ADB, BSc-MIS 5ADB, BSc-CE 1ADB, BSc-MIS 1ADB, BSc-CE 9ADB, BSc-MIS 0ADB, BSc-MIS 7ADB, BSc-MIS 2ADB, BSc-CE 0ADB, BSc-CE 4ADB, BSc-CE 8ADB, BSc-MIS 6ADB, BSc-CE 2ADB, BSc-MIS 3ADB, BSc-EEE 8ADB, BSc-ME 6ADB, BSc-MT 2ADB, BSc-CE 6ADB, BSc-CE 7ADB, BSc-CE 5ADB, BSc-MIS 4ADB</t>
-  </si>
-  <si>
-    <t>African Cultural Institutions</t>
-  </si>
-  <si>
-    <t>A, I</t>
-  </si>
-  <si>
-    <t>BSc-CS 5ADB, BSc-BA 1ADB, BSc-BA 0ADB, BSc-BA 2ADB, BSc-MIS 3ADB, BSc-BA 9ADB, BSc-MIS 7ADB, BSc-BA 6ADB, BSc-BA 5ADB, BSc-MIS 5ADB, BSc-CS 2ADB, Undeclared 9ADB, BSc-CS 6ADB, BSc-MIS 2ADB, BSc-BA 8ADB, Undeclared 0ADB, BSc-MIS 4ADB, BSc-MIS 0ADB, BSc-CS 8ADB, BSc-CS 1ADB, BSc-ME 7ADB, BSc-ME 3ADB, BSc-MIS 1ADB, BSc-BA 7ADB, BSc-CS 3ADB, BSc-BA 3ADB, Undeclared 3ADB</t>
-  </si>
-  <si>
     <t>Cloud Computing</t>
   </si>
   <si>
+    <t>C, K</t>
+  </si>
+  <si>
     <t>BSc-CS 5ADB, BSc-CS 2ADB, BSc-CS 3ADB, BSc-CS 1ADB, BSc-CS 4ADB, BSc-CS 9ADB, BSc-MIS 2ADB, BSc-CS 6ADB, BSc-MIS 7ADB, BSc-CS 7ADB, BSc-MIS 6ADB, BSc-CS 8ADB, BSc-MIS 9ADB, BSc-MIS 4ADB, BSc-CS 0ADB, BSc-MIS 3ADB, BSc-MIS 1ADB</t>
   </si>
   <si>
-    <t>Computer Organization and Architecture</t>
+    <t>25 April, 2025 Eight AM</t>
+  </si>
+  <si>
+    <t>Mechanics of Materials</t>
+  </si>
+  <si>
+    <t>BSc-ME 7ADB, BSc-ME 3ADB, BSc-ME 5ADB, BSc-ME 6ADB, BSc-MT 8ADB, BSc-ME 4ADB, BSc-ME 1ADB, BSc-MT 2ADB, BSc-MT 7ADB, BSc-ME 8ADB, BSc-MT 5ADB, BSc-ME 0ADB, BSc-MT 4ADB, BSc-ME 9ADB, BSc-EEE 5ADB, BSc-ME 2ADB, BSc-MT 1ADB, Undeclared 1ADB</t>
+  </si>
+  <si>
+    <t>Computer Programming for CS</t>
+  </si>
+  <si>
+    <t>A, E</t>
+  </si>
+  <si>
+    <t>BSc-CS 7ADB, BSc-CS 0ADB, BSc-CS 2ADB, BSc-MIS 3ADB, BSc-CS 5ADB, BSc-CS 6ADB, BSc-CS 3ADB, BSc-CS 8ADB, BSc-MIS 0ADB, BSc-MIS 5ADB, BSc-MIS 4ADB, BSc-MIS 7ADB, BSc-MIS 2ADB, BSc-CS 9ADB, BSc-CS 4ADB, BSc-MIS 8ADB, BSc-BA 3ADB, BSc-CS 1ADB, BSc-EEE 8ADB</t>
+  </si>
+  <si>
+    <t>Digital and Analog Signal Processing in Telecommunications</t>
+  </si>
+  <si>
+    <t>BSc-EEE 1ADB, BSc-EEE 8ADB, BSc-EEE 0ADB, BSc-EEE 5ADB, BSc-EEE 7ADB</t>
+  </si>
+  <si>
+    <t>Intermediate Macroeconomic Theory I</t>
+  </si>
+  <si>
+    <t>BSc-ECON 6ADB, BSc-CS 2ADB, BSc-ECON 8ADB, BSc-ECON 3ADB, BSc-ECON 7ADB, BSc-ECON 1ADB, BSc-ECON 4ADB, BSc-ECON 9ADB</t>
+  </si>
+  <si>
+    <t>25 April, 2025 One PM</t>
+  </si>
+  <si>
+    <t>Principles of Microeconomics</t>
+  </si>
+  <si>
+    <t>BSc-BA 8ADB, BSc-BA 1ADB, BSc-BA 7ADB, BSc-BA 4ADB, BSc-BA 0ADB, BSc-BA 6ADB, BSc-BA 3ADB, BSc-BA 5ADB, BSc-BA 9ADB, BSc-BA 2ADB, BSc-ECON 5ADB, BSc-ECON 3ADB, BSc-MIS 2ADB, BSc-ECON 0ADB, BSc-ECON 4ADB, BSc-MIS 6ADB, BSc-ECON 6ADB, BSc-MIS 5ADB, BSc-ECON 1ADB</t>
+  </si>
+  <si>
+    <t>Entrepreneurship I</t>
+  </si>
+  <si>
+    <t>BSc-BA 1ADB, BSc-BA 2ADB, BSc-BA 0ADB, BSc-BA 6ADB, BSc-MIS 3ADB, BSc-BA 9ADB, BSc-CS 5ADB, BSc-BA 8ADB, BSc-MIS 6ADB, BSc-MIS 4ADB, BSc-BA 3ADB, BSc-BA 5ADB, BSc-BA 4ADB, BSc-CS 4ADB, BSc-CS 1ADB, BSc-CS 9ADB, BSc-MIS 5ADB, BSc-MIS 2ADB, BSc-MIS 7ADB</t>
+  </si>
+  <si>
+    <t>Applied Project I (BA)</t>
+  </si>
+  <si>
+    <t>BSc-BA 7ADB, BSc-BA 9ADB, BSc-BA 6ADB, BSc-BA 4ADB, BSc-BA 8ADB, BSc-BA 0ADB, BSc-BA 5ADB, BSc-BA 2ADB, BSc-MIS 1ADB, BSc-BA 1ADB, BSc-MIS 9ADB, BSc-CS 5ADB, BSc-MIS 3ADB, BSc-MIS 7ADB</t>
+  </si>
+  <si>
+    <t>Multivariable Calculus and Linear Algebra</t>
+  </si>
+  <si>
+    <t>BSc-MT 8ADB, BSc-CE 2ADB, BSc-ME 5ADB, BSc-MT 0ADB, BSc-ME 6ADB, BSc-CE 0ADB, BSc-EEE 3ADB</t>
+  </si>
+  <si>
+    <t>Hardware and Systems Fundamentals</t>
+  </si>
+  <si>
+    <t>G, H, I</t>
+  </si>
+  <si>
+    <t>BSc-CS 0ADB, BSc-CS 2ADB, BSc-CS 5ADB, BSc-CS 6ADB, BSc-CS 7ADB, BSc-CS 8ADB, BSc-CS 4ADB, BSc-CS 1ADB, BSc-CS 9ADB, BSc-CS 3ADB</t>
+  </si>
+  <si>
+    <t>Undergraduate Thesis I (CS)</t>
   </si>
   <si>
     <t>K</t>
-  </si>
-  <si>
-    <t>BSc-CE 5ADB, BSc-CE 2ADB, BSc-CE 8ADB, BSc-CE 1ADB, BSc-CE 9ADB, BSc-CE 3ADB, BSc-CE 6ADB, BSc-CE 0ADB, BSc-CE 7ADB</t>
-  </si>
-  <si>
-    <t>Concepts of Programming Languages</t>
-  </si>
-  <si>
-    <t>BSc-CS 2ADB, BSc-CS 7ADB, BSc-CS 4ADB, BSc-CS 0ADB, BSc-CS 8ADB, BSc-MIS 8ADB, BSc-CS 5ADB, BSc-CS 9ADB, BSc-MIS 7ADB, BSc-CS 1ADB</t>
-  </si>
-  <si>
-    <t>25 April, 2025 Eight AM</t>
-  </si>
-  <si>
-    <t>Mechanics of Materials</t>
-  </si>
-  <si>
-    <t>BSc-ME 7ADB, BSc-ME 3ADB, BSc-ME 5ADB, BSc-ME 6ADB, BSc-MT 8ADB, BSc-ME 4ADB, BSc-ME 1ADB, BSc-MT 2ADB, BSc-MT 7ADB, BSc-ME 8ADB, BSc-MT 5ADB, BSc-ME 0ADB, BSc-MT 4ADB, BSc-ME 9ADB, BSc-EEE 5ADB, BSc-ME 2ADB, BSc-MT 1ADB, Undeclared 1ADB</t>
-  </si>
-  <si>
-    <t>Computer Programming for CS</t>
-  </si>
-  <si>
-    <t>A, E</t>
-  </si>
-  <si>
-    <t>BSc-CS 7ADB, BSc-CS 0ADB, BSc-CS 2ADB, BSc-MIS 3ADB, BSc-CS 5ADB, BSc-CS 6ADB, BSc-CS 3ADB, BSc-CS 8ADB, BSc-MIS 0ADB, BSc-MIS 5ADB, BSc-MIS 4ADB, BSc-MIS 7ADB, BSc-MIS 2ADB, BSc-CS 9ADB, BSc-CS 4ADB, BSc-MIS 8ADB, BSc-BA 3ADB, BSc-CS 1ADB, BSc-EEE 8ADB</t>
-  </si>
-  <si>
-    <t>Digital and Analog Signal Processing in Telecommunications</t>
-  </si>
-  <si>
-    <t>BSc-EEE 1ADB, BSc-EEE 8ADB, BSc-EEE 0ADB, BSc-EEE 5ADB, BSc-EEE 7ADB</t>
-  </si>
-  <si>
-    <t>Intermediate Macroeconomic Theory I</t>
-  </si>
-  <si>
-    <t>BSc-ECON 6ADB, BSc-CS 2ADB, BSc-ECON 8ADB, BSc-ECON 3ADB, BSc-ECON 7ADB, BSc-ECON 1ADB, BSc-ECON 4ADB, BSc-ECON 9ADB</t>
-  </si>
-  <si>
-    <t>Power Systems Analysis</t>
-  </si>
-  <si>
-    <t>BSc-EEE 8ADB, BSc-EEE 5ADB, BSc-EEE 4ADB, BSc-EEE 2ADB, BSc-EEE 1ADB, BSc-EEE 6ADB, BSc-EEE 3ADB, BSc-EEE 0ADB</t>
-  </si>
-  <si>
-    <t>25 April, 2025 One PM</t>
-  </si>
-  <si>
-    <t>Principles of Microeconomics</t>
-  </si>
-  <si>
-    <t>BSc-BA 8ADB, BSc-BA 1ADB, BSc-BA 7ADB, BSc-BA 4ADB, BSc-BA 0ADB, BSc-BA 6ADB, BSc-BA 3ADB, BSc-BA 5ADB, BSc-BA 9ADB, BSc-BA 2ADB, BSc-ECON 5ADB, BSc-ECON 3ADB, BSc-MIS 2ADB, BSc-ECON 0ADB, BSc-ECON 4ADB, BSc-MIS 6ADB, BSc-ECON 6ADB, BSc-MIS 5ADB, BSc-ECON 1ADB</t>
-  </si>
-  <si>
-    <t>Entrepreneurship I</t>
-  </si>
-  <si>
-    <t>BSc-BA 1ADB, BSc-BA 2ADB, BSc-BA 0ADB, BSc-BA 6ADB, BSc-MIS 3ADB, BSc-BA 9ADB, BSc-CS 5ADB, BSc-BA 8ADB, BSc-MIS 6ADB, BSc-MIS 4ADB, BSc-BA 3ADB, BSc-BA 5ADB, BSc-BA 4ADB, BSc-CS 4ADB, BSc-CS 1ADB, BSc-CS 9ADB, BSc-MIS 5ADB, BSc-MIS 2ADB, BSc-MIS 7ADB</t>
-  </si>
-  <si>
-    <t>Applied Project I (BA)</t>
-  </si>
-  <si>
-    <t>BSc-BA 7ADB, BSc-BA 9ADB, BSc-BA 6ADB, BSc-BA 4ADB, BSc-BA 8ADB, BSc-BA 0ADB, BSc-BA 5ADB, BSc-BA 2ADB, BSc-MIS 1ADB, BSc-BA 1ADB, BSc-MIS 9ADB, BSc-CS 5ADB, BSc-MIS 3ADB, BSc-MIS 7ADB</t>
-  </si>
-  <si>
-    <t>Multivariable Calculus and Linear Algebra</t>
-  </si>
-  <si>
-    <t>BSc-MT 8ADB, BSc-CE 2ADB, BSc-ME 5ADB, BSc-MT 0ADB, BSc-ME 6ADB, BSc-CE 0ADB, BSc-EEE 3ADB</t>
-  </si>
-  <si>
-    <t>Hardware and Systems Fundamentals</t>
-  </si>
-  <si>
-    <t>G, H, I</t>
-  </si>
-  <si>
-    <t>BSc-CS 0ADB, BSc-CS 2ADB, BSc-CS 5ADB, BSc-CS 6ADB, BSc-CS 7ADB, BSc-CS 8ADB, BSc-CS 4ADB, BSc-CS 1ADB, BSc-CS 9ADB, BSc-CS 3ADB</t>
-  </si>
-  <si>
-    <t>Undergraduate Thesis I (CS)</t>
   </si>
   <si>
     <t>BSc-CS 7ADB, BSc-CS 6ADB, BSc-CS 3ADB, BSc-CS 8ADB, BSc-CS 2ADB, BSc-CS 0ADB, BSc-CS 1ADB, BSc-CS 5ADB, BSc-CS 9ADB, BSc-MIS 3ADB, BSc-MIS 5ADB, BSc-MIS 8ADB, BSc-MIS 6ADB, BSc-MIS 4ADB, BSc-MIS 2ADB, BSc-MIS 9ADB, BSc-CS 4ADB</t>
@@ -890,11 +890,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="104.08984375" customWidth="1"/>
+    <col min="1" max="1" width="76.54296875" customWidth="1"/>
+    <col min="2" max="2" width="82.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1275,229 +1278,229 @@
         <v>98</v>
       </c>
       <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
         <v>99</v>
-      </c>
-      <c r="D30" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
         <v>101</v>
-      </c>
-      <c r="C31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
         <v>104</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" t="s">
         <v>105</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" t="s">
         <v>111</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>112</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" t="s">
         <v>116</v>
-      </c>
-      <c r="C36" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="2"/>
+      <c r="B38" t="s">
         <v>119</v>
       </c>
-      <c r="C37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C38" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+      <c r="D38" t="s">
         <v>121</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" t="s">
         <v>82</v>
       </c>
-      <c r="D38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>124</v>
-      </c>
-      <c r="C39" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" t="s">
         <v>127</v>
-      </c>
-      <c r="C40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
         <v>129</v>
-      </c>
-      <c r="C41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" t="s">
         <v>131</v>
-      </c>
-      <c r="C42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" t="s">
         <v>133</v>
-      </c>
-      <c r="B43" t="s">
-        <v>134</v>
       </c>
       <c r="C43" t="s">
         <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
         <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C46" t="s">
         <v>62</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" t="s">
         <v>142</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>143</v>
-      </c>
-      <c r="D47" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" t="s">
         <v>145</v>
-      </c>
-      <c r="C48" t="s">
-        <v>117</v>
       </c>
       <c r="D48" t="s">
         <v>146</v>
@@ -1538,7 +1541,7 @@
         <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -1606,21 +1609,21 @@
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A33:A37"/>
     <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A35:A38"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A30:A34"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A38:A42"/>
     <mergeCell ref="A43:A48"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A39:A42"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/final/final.xlsx
+++ b/final/final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aucampus-my.sharepoint.com/personal/marie_doh_ashesi_edu_gh/Documents/Desktop/Documents/GitHub/cap/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_651DB2A0D330DE0CB7392211595ED87656CD1DE9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF64B9CC-454B-4813-A47A-F18810B43AAE}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_651DB2A0D3F0D436431B3F11595ED87656CD1DE9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3F7F460-D636-4CA4-87B4-F2BABCB2F948}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,14 +890,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="76.54296875" customWidth="1"/>
-    <col min="2" max="2" width="82.54296875" customWidth="1"/>
+    <col min="1" max="1" width="35.6328125" customWidth="1"/>
+    <col min="2" max="2" width="115.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1608,6 +1608,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A39:A42"/>
     <mergeCell ref="A53:A56"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A35:A38"/>
@@ -1616,14 +1624,6 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A39:A42"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
